--- a/9/lap=2/9_lap=2_SS.xlsx
+++ b/9/lap=2/9_lap=2_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/lap=2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC5E62E-19E7-BD48-9584-87DFD25A01EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A6131-D1A1-FF48-8438-00719B9168E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,6 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">まとめ!$D$13:$D$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">まとめ!$D$2:$D$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">まとめ!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">まとめ!$E$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">まとめ!$E$13:$E$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">まとめ!$E$2:$E$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -366,7 +358,7 @@
                   <c:v>35.744857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.929571428571428</c:v>
+                  <c:v>35.9295714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.911571428571428</c:v>
@@ -5696,7 +5688,7 @@
                   <c:v>35.744857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.929571428571428</c:v>
+                  <c:v>35.9295714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.911571428571428</c:v>
@@ -7161,7 +7153,7 @@
                   <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7173,10 +7165,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.589428571428577</c:v>
+                  <c:v>36.589428571428599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.589428571428577</c:v>
+                  <c:v>36.589428571428599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7281,7 +7273,7 @@
                   <c:v>35.744857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.929571428571428</c:v>
+                  <c:v>35.9295714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.911571428571428</c:v>
@@ -7464,7 +7456,7 @@
                   <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7559,9 +7551,6 @@
                 <c:pt idx="7">
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7572,31 +7561,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.895714285714291</c:v>
+                  <c:v>23.85971428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.805428571428571</c:v>
+                  <c:v>30.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.994999999999997</c:v>
+                  <c:v>33.758428571428567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.941571428571429</c:v>
+                  <c:v>34.503571428571433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.255571428571429</c:v>
+                  <c:v>35.032142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.262714285714281</c:v>
+                  <c:v>35.899428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.140714285714282</c:v>
+                  <c:v>36.910428571428582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.158285714285711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.145142857142858</c:v>
+                  <c:v>36.87614285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12493,8 +12479,8 @@
       <sheetName val="9_l_l80"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="E1" t="str">
@@ -12506,7 +12492,7 @@
             <v>0</v>
           </cell>
           <cell r="E2">
-            <v>23.895714285714291</v>
+            <v>23.85971428571429</v>
           </cell>
         </row>
         <row r="3">
@@ -12514,7 +12500,7 @@
             <v>0.22222222222222221</v>
           </cell>
           <cell r="E3">
-            <v>30.805428571428571</v>
+            <v>30.591000000000001</v>
           </cell>
         </row>
         <row r="4">
@@ -12522,7 +12508,7 @@
             <v>0.4</v>
           </cell>
           <cell r="E4">
-            <v>33.994999999999997</v>
+            <v>33.758428571428567</v>
           </cell>
         </row>
         <row r="5">
@@ -12530,7 +12516,7 @@
             <v>0.47619047619047616</v>
           </cell>
           <cell r="E5">
-            <v>34.941571428571429</v>
+            <v>34.503571428571433</v>
           </cell>
         </row>
         <row r="6">
@@ -12538,7 +12524,7 @@
             <v>0.54545454545454541</v>
           </cell>
           <cell r="E6">
-            <v>35.255571428571429</v>
+            <v>35.032142857142858</v>
           </cell>
         </row>
         <row r="7">
@@ -12546,7 +12532,7 @@
             <v>0.66666666666666663</v>
           </cell>
           <cell r="E7">
-            <v>36.262714285714281</v>
+            <v>35.899428571428572</v>
           </cell>
         </row>
         <row r="8">
@@ -12554,7 +12540,7 @@
             <v>0.76923076923076927</v>
           </cell>
           <cell r="E8">
-            <v>37.140714285714282</v>
+            <v>36.910428571428582</v>
           </cell>
         </row>
         <row r="9">
@@ -12562,15 +12548,7 @@
             <v>0.8571428571428571</v>
           </cell>
           <cell r="E9">
-            <v>37.158285714285711</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0.93333333333333335</v>
-          </cell>
-          <cell r="E10">
-            <v>37.145142857142858</v>
+            <v>36.87614285714286</v>
           </cell>
         </row>
         <row r="13">
@@ -12588,23 +12566,23 @@
         </row>
         <row r="15">
           <cell r="C15">
-            <v>1.5</v>
+            <v>100</v>
           </cell>
           <cell r="D15">
             <v>42.587857142857153</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15827,7 +15805,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15891,7 +15869,7 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="1">B3/C3</f>
+        <f t="shared" ref="D3:D9" si="1">B3/C3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="E3">
@@ -15983,7 +15961,7 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="E7">
-        <v>36.929571428571428</v>
+        <v>35.9295714285714</v>
       </c>
       <c r="F7">
         <v>2609.2223376623378</v>
@@ -16065,15 +16043,15 @@
         <v>-0.5</v>
       </c>
       <c r="E13">
-        <v>37.589428571428577</v>
+        <v>36.589428571428599</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="D14">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>37.589428571428577</v>
+        <v>36.589428571428599</v>
       </c>
     </row>
   </sheetData>
